--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhba</t>
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J2">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N2">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q2">
-        <v>732.3985576732108</v>
+        <v>8.469057595562667</v>
       </c>
       <c r="R2">
-        <v>732.3985576732108</v>
+        <v>76.221518360064</v>
       </c>
       <c r="S2">
-        <v>0.6064282982968445</v>
+        <v>0.006234030171530646</v>
       </c>
       <c r="T2">
-        <v>0.6064282982968445</v>
+        <v>0.006234030171530647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J3">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N3">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q3">
-        <v>161.7670635404664</v>
+        <v>1.879228607666667</v>
       </c>
       <c r="R3">
-        <v>161.7670635404664</v>
+        <v>16.913057469</v>
       </c>
       <c r="S3">
-        <v>0.1339436349724407</v>
+        <v>0.001383290609044346</v>
       </c>
       <c r="T3">
-        <v>0.1339436349724407</v>
+        <v>0.001383290609044347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J4">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N4">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q4">
-        <v>26.65343341359135</v>
+        <v>0.3186839025626667</v>
       </c>
       <c r="R4">
-        <v>26.65343341359135</v>
+        <v>2.868155123064</v>
       </c>
       <c r="S4">
-        <v>0.02206912629664736</v>
+        <v>0.0002345815979333655</v>
       </c>
       <c r="T4">
-        <v>0.02206912629664736</v>
+        <v>0.0002345815979333655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J5">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N5">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q5">
-        <v>18.64102323619108</v>
+        <v>0.245747515552</v>
       </c>
       <c r="R5">
-        <v>18.64102323619108</v>
+        <v>2.211727639968</v>
       </c>
       <c r="S5">
-        <v>0.0154348255894289</v>
+        <v>0.000180893494847945</v>
       </c>
       <c r="T5">
-        <v>0.0154348255894289</v>
+        <v>0.000180893494847945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.14345409419433</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
-        <v>3.14345409419433</v>
+        <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725669</v>
       </c>
       <c r="J6">
-        <v>0.7880989587701763</v>
+        <v>0.008139134469725671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N6">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O6">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P6">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q6">
-        <v>12.34666058873843</v>
+        <v>0.1444631598666667</v>
       </c>
       <c r="R6">
-        <v>12.34666058873843</v>
+        <v>1.3001684388</v>
       </c>
       <c r="S6">
-        <v>0.01022307361481472</v>
+        <v>0.0001063385963693664</v>
       </c>
       <c r="T6">
-        <v>0.01022307361481472</v>
+        <v>0.0001063385963693664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H7">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J7">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N7">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q7">
-        <v>98.89514669490397</v>
+        <v>752.9706967551643</v>
       </c>
       <c r="R7">
-        <v>98.89514669490397</v>
+        <v>6776.736270796479</v>
       </c>
       <c r="S7">
-        <v>0.08188549102354555</v>
+        <v>0.5542578957438634</v>
       </c>
       <c r="T7">
-        <v>0.08188549102354555</v>
+        <v>0.5542578957438635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H8">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J8">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N8">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q8">
-        <v>21.84326731890756</v>
+        <v>167.0792833925694</v>
       </c>
       <c r="R8">
-        <v>21.84326731890756</v>
+        <v>1503.713550533125</v>
       </c>
       <c r="S8">
-        <v>0.01808629371353649</v>
+        <v>0.1229862097351573</v>
       </c>
       <c r="T8">
-        <v>0.01808629371353649</v>
+        <v>0.1229862097351573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H9">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J9">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N9">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q9">
-        <v>3.598990166957814</v>
+        <v>28.33368854203945</v>
       </c>
       <c r="R9">
-        <v>3.598990166957814</v>
+        <v>255.003196878355</v>
       </c>
       <c r="S9">
-        <v>0.0029799751237483</v>
+        <v>0.02085628386024584</v>
       </c>
       <c r="T9">
-        <v>0.0029799751237483</v>
+        <v>0.02085628386024584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H10">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J10">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N10">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q10">
-        <v>2.517081318869534</v>
+        <v>21.84902817380666</v>
       </c>
       <c r="R10">
-        <v>2.517081318869534</v>
+        <v>196.64125356426</v>
       </c>
       <c r="S10">
-        <v>0.002084151210955697</v>
+        <v>0.01608295838317351</v>
       </c>
       <c r="T10">
-        <v>0.002084151210955697</v>
+        <v>0.01608295838317351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.424457900028734</v>
+        <v>3.231288333333333</v>
       </c>
       <c r="H11">
-        <v>0.424457900028734</v>
+        <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080932</v>
       </c>
       <c r="J11">
-        <v>0.1064163239005904</v>
+        <v>0.7236377464080933</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N11">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O11">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P11">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q11">
-        <v>1.667158949622461</v>
+        <v>12.84399414136111</v>
       </c>
       <c r="R11">
-        <v>1.667158949622461</v>
+        <v>115.59594727225</v>
       </c>
       <c r="S11">
-        <v>0.001380412828804351</v>
+        <v>0.009454398685653091</v>
       </c>
       <c r="T11">
-        <v>0.001380412828804351</v>
+        <v>0.009454398685653094</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H12">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J12">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N12">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O12">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P12">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q12">
-        <v>98.02938319961204</v>
+        <v>125.3536570552107</v>
       </c>
       <c r="R12">
-        <v>98.02938319961204</v>
+        <v>1128.182913496896</v>
       </c>
       <c r="S12">
-        <v>0.0811686361394434</v>
+        <v>0.09227218865571668</v>
       </c>
       <c r="T12">
-        <v>0.0811686361394434</v>
+        <v>0.09227218865571671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H13">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I13">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J13">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N13">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P13">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q13">
-        <v>21.65204354206283</v>
+        <v>27.81515838754166</v>
       </c>
       <c r="R13">
-        <v>21.65204354206283</v>
+        <v>250.336425487875</v>
       </c>
       <c r="S13">
-        <v>0.01792795982774314</v>
+        <v>0.02047459645388302</v>
       </c>
       <c r="T13">
-        <v>0.01792795982774314</v>
+        <v>0.02047459645388303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H14">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I14">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J14">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N14">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O14">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P14">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q14">
-        <v>3.567483319447093</v>
+        <v>4.716958431335668</v>
       </c>
       <c r="R14">
-        <v>3.567483319447093</v>
+        <v>42.452625882021</v>
       </c>
       <c r="S14">
-        <v>0.002953887355387143</v>
+        <v>0.003472129082486038</v>
       </c>
       <c r="T14">
-        <v>0.002953887355387143</v>
+        <v>0.003472129082486039</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.42074204371612</v>
+        <v>0.537941</v>
       </c>
       <c r="H15">
-        <v>0.42074204371612</v>
+        <v>1.613823</v>
       </c>
       <c r="I15">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="J15">
-        <v>0.1054847173292334</v>
+        <v>0.1204703427189824</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N15">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O15">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P15">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q15">
-        <v>2.495045888483032</v>
+        <v>3.637399963228</v>
       </c>
       <c r="R15">
-        <v>2.495045888483032</v>
+        <v>32.736599669052</v>
       </c>
       <c r="S15">
-        <v>0.002065905805620686</v>
+        <v>0.002677471591239225</v>
       </c>
       <c r="T15">
-        <v>0.002065905805620686</v>
+        <v>0.002677471591239225</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.537941</v>
+      </c>
+      <c r="H16">
+        <v>1.613823</v>
+      </c>
+      <c r="I16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="J16">
+        <v>0.1204703427189824</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.974883333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.92465</v>
+      </c>
+      <c r="O16">
+        <v>0.0130650988461861</v>
+      </c>
+      <c r="P16">
+        <v>0.01306509884618611</v>
+      </c>
+      <c r="Q16">
+        <v>2.138252715216666</v>
+      </c>
+      <c r="R16">
+        <v>19.24427443695</v>
+      </c>
+      <c r="S16">
+        <v>0.001573956935657421</v>
+      </c>
+      <c r="T16">
+        <v>0.001573956935657422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.50239</v>
+      </c>
+      <c r="H17">
+        <v>1.50717</v>
+      </c>
+      <c r="I17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J17">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>233.0249173333333</v>
+      </c>
+      <c r="N17">
+        <v>699.074752</v>
+      </c>
+      <c r="O17">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="P17">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="Q17">
+        <v>117.0693882190933</v>
+      </c>
+      <c r="R17">
+        <v>1053.62449397184</v>
+      </c>
+      <c r="S17">
+        <v>0.08617418054906673</v>
+      </c>
+      <c r="T17">
+        <v>0.08617418054906675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.50239</v>
+      </c>
+      <c r="H18">
+        <v>1.50717</v>
+      </c>
+      <c r="I18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J18">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.70670833333333</v>
+      </c>
+      <c r="N18">
+        <v>155.120125</v>
+      </c>
+      <c r="O18">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="P18">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="Q18">
+        <v>25.97693319958333</v>
+      </c>
+      <c r="R18">
+        <v>233.79239879625</v>
+      </c>
+      <c r="S18">
+        <v>0.01912148825329598</v>
+      </c>
+      <c r="T18">
+        <v>0.01912148825329598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.50239</v>
+      </c>
+      <c r="H19">
+        <v>1.50717</v>
+      </c>
+      <c r="I19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J19">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.768542333333334</v>
+      </c>
+      <c r="N19">
+        <v>26.305627</v>
+      </c>
+      <c r="O19">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="P19">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="Q19">
+        <v>4.405227982843334</v>
+      </c>
+      <c r="R19">
+        <v>39.64705184559001</v>
+      </c>
+      <c r="S19">
+        <v>0.003242665886686757</v>
+      </c>
+      <c r="T19">
+        <v>0.003242665886686757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.50239</v>
+      </c>
+      <c r="H20">
+        <v>1.50717</v>
+      </c>
+      <c r="I20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J20">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.761708</v>
+      </c>
+      <c r="N20">
+        <v>20.285124</v>
+      </c>
+      <c r="O20">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="P20">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="Q20">
+        <v>3.39701448212</v>
+      </c>
+      <c r="R20">
+        <v>30.57313033908</v>
+      </c>
+      <c r="S20">
+        <v>0.002500525062641951</v>
+      </c>
+      <c r="T20">
+        <v>0.002500525062641952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="H16">
-        <v>0.42074204371612</v>
-      </c>
-      <c r="I16">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="J16">
-        <v>0.1054847173292334</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.92773688393973</v>
-      </c>
-      <c r="N16">
-        <v>3.92773688393973</v>
-      </c>
-      <c r="O16">
-        <v>0.01297181464465803</v>
-      </c>
-      <c r="P16">
-        <v>0.01297181464465803</v>
-      </c>
-      <c r="Q16">
-        <v>1.652564043727987</v>
-      </c>
-      <c r="R16">
-        <v>1.652564043727987</v>
-      </c>
-      <c r="S16">
-        <v>0.001368328201038962</v>
-      </c>
-      <c r="T16">
-        <v>0.001368328201038962</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.50239</v>
+      </c>
+      <c r="H21">
+        <v>1.50717</v>
+      </c>
+      <c r="I21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="J21">
+        <v>0.112508798322845</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.974883333333333</v>
+      </c>
+      <c r="N21">
+        <v>11.92465</v>
+      </c>
+      <c r="O21">
+        <v>0.0130650988461861</v>
+      </c>
+      <c r="P21">
+        <v>0.01306509884618611</v>
+      </c>
+      <c r="Q21">
+        <v>1.996941637833333</v>
+      </c>
+      <c r="R21">
+        <v>17.9724747405</v>
+      </c>
+      <c r="S21">
+        <v>0.001469938571153587</v>
+      </c>
+      <c r="T21">
+        <v>0.001469938571153588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.472129</v>
+      </c>
+      <c r="I22">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J22">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>233.0249173333333</v>
+      </c>
+      <c r="N22">
+        <v>699.074752</v>
+      </c>
+      <c r="O22">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="P22">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="Q22">
+        <v>36.67260706522311</v>
+      </c>
+      <c r="R22">
+        <v>330.053463587008</v>
+      </c>
+      <c r="S22">
+        <v>0.02699451932326833</v>
+      </c>
+      <c r="T22">
+        <v>0.02699451932326834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.472129</v>
+      </c>
+      <c r="I23">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J23">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.70670833333333</v>
+      </c>
+      <c r="N23">
+        <v>155.120125</v>
+      </c>
+      <c r="O23">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="P23">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="Q23">
+        <v>8.137412166236111</v>
+      </c>
+      <c r="R23">
+        <v>73.236709496125</v>
+      </c>
+      <c r="S23">
+        <v>0.005989907659746663</v>
+      </c>
+      <c r="T23">
+        <v>0.005989907659746664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.472129</v>
+      </c>
+      <c r="I24">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J24">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.768542333333334</v>
+      </c>
+      <c r="N24">
+        <v>26.305627</v>
+      </c>
+      <c r="O24">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="P24">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="Q24">
+        <v>1.379961041098111</v>
+      </c>
+      <c r="R24">
+        <v>12.419649369883</v>
+      </c>
+      <c r="S24">
+        <v>0.001015782295570859</v>
+      </c>
+      <c r="T24">
+        <v>0.001015782295570859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.472129</v>
+      </c>
+      <c r="I25">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J25">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.761708</v>
+      </c>
+      <c r="N25">
+        <v>20.285124</v>
+      </c>
+      <c r="O25">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="P25">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="Q25">
+        <v>1.064132812110667</v>
+      </c>
+      <c r="R25">
+        <v>9.577195308996</v>
+      </c>
+      <c r="S25">
+        <v>0.0007833027444150839</v>
+      </c>
+      <c r="T25">
+        <v>0.000783302744415084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1573763333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.472129</v>
+      </c>
+      <c r="I26">
+        <v>0.03524397808035357</v>
+      </c>
+      <c r="J26">
+        <v>0.03524397808035358</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.974883333333333</v>
+      </c>
+      <c r="N26">
+        <v>11.92465</v>
+      </c>
+      <c r="O26">
+        <v>0.0130650988461861</v>
+      </c>
+      <c r="P26">
+        <v>0.01306509884618611</v>
+      </c>
+      <c r="Q26">
+        <v>0.6255525644277777</v>
+      </c>
+      <c r="R26">
+        <v>5.62997307985</v>
+      </c>
+      <c r="S26">
+        <v>0.0004604660573526358</v>
+      </c>
+      <c r="T26">
+        <v>0.000460466057352636</v>
       </c>
     </row>
   </sheetData>
